--- a/Unity/Assets/Config/Excel/Data/Hero.xlsx
+++ b/Unity/Assets/Config/Excel/Data/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29140" windowHeight="14540"/>
+    <workbookView windowWidth="29120" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>ResourceName</t>
+  </si>
+  <si>
+    <t>ViewDistance</t>
   </si>
   <si>
     <t>##type</t>
@@ -1377,7 +1380,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
@@ -1388,6 +1391,7 @@
     <col min="8" max="8" width="12.0769230769231" customWidth="1"/>
     <col min="9" max="11" width="10.3846153846154" customWidth="1"/>
     <col min="12" max="12" width="24.1538461538462" customWidth="1"/>
+    <col min="13" max="13" width="14.4615384615385" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -1427,53 +1431,57 @@
       <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8"/>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="M2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1484,53 +1492,56 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -1557,7 +1568,10 @@
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="M5">
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
